--- a/Moduler/Uimplementeret moduler/UltralydsSensor/Modultest/TestData.xlsx
+++ b/Moduler/Uimplementeret moduler/UltralydsSensor/Modultest/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User folders\Documents\GitHub\Pandekage-tastrofe\Moduler\Uimplementeret moduler\UltralydsSensor\Modultest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147FD7EF-858F-4253-B60F-C98A6235D032}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC4CAEC-3E16-44AA-89EE-F446DF75D35D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="4215" windowWidth="21585" windowHeight="11385" xr2:uid="{291167FD-FA3F-44FD-92E0-A49E8D004F33}"/>
+    <workbookView xWindow="3270" yWindow="1455" windowWidth="21585" windowHeight="11385" xr2:uid="{291167FD-FA3F-44FD-92E0-A49E8D004F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,37 +111,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -199,13 +169,15 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11430293088363955"/>
-                  <c:y val="-0.44929534849810443"/>
+                  <c:x val="-6.8066102817739363E-4"/>
+                  <c:y val="0.33567074948964715"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
@@ -530,6 +502,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Counts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -575,6 +616,7 @@
         <c:axId val="321373824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -592,6 +634,80 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Reel</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> afstand [cm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1581,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A05CB60-04AD-4D09-9043-FC05082DE183}">
   <dimension ref="B2:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
